--- a/medicine/Enfance/Camp_d'été/Camp_d'été.xlsx
+++ b/medicine/Enfance/Camp_d'été/Camp_d'été.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Camp_d%27%C3%A9t%C3%A9</t>
+          <t>Camp_d'été</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un camp d'été est un programme supervisé pour enfants mené pendant les mois d'été dans certains pays. Les enfants et adolescents qui fréquentent les camps d'été sont appelés campeurs.
 L'objectif principal de nombreux camps est le développement éducatif, sportif ou culturel. Un environnement de camp d'été peut permettre aux enfants d'acquérir de nouvelles compétences dans un environnement sûr et stimulant.
